--- a/DataAgregation/events_data.xlsx
+++ b/DataAgregation/events_data.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Currency Rate" sheetId="53" r:id="rId81"/>
     <sheet name="Stage Info" sheetId="54" r:id="rId82"/>
     <sheet name="Item Info" sheetId="55" r:id="rId83"/>
+    <sheet name="Items by date info" sheetId="56" r:id="rId84"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>Date</t>
   </si>
@@ -486,6 +487,9 @@
   </si>
   <si>
     <t>Yum Heart</t>
+  </si>
+  <si>
+    <t>Items sold</t>
   </si>
 </sst>
 </file>
@@ -4576,4 +4580,358 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1655</v>
+      </c>
+      <c r="C2" s="0">
+        <v>547810</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0">
+        <v>3316</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1097620</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0">
+        <v>5212</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1674140</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0">
+        <v>7242</v>
+      </c>
+      <c r="C5" s="0">
+        <v>2257960</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0">
+        <v>9260</v>
+      </c>
+      <c r="C6" s="0">
+        <v>2807930</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0">
+        <v>11541</v>
+      </c>
+      <c r="C7" s="0">
+        <v>3386020</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0">
+        <v>14137</v>
+      </c>
+      <c r="C8" s="0">
+        <v>4001480</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0">
+        <v>17083</v>
+      </c>
+      <c r="C9" s="0">
+        <v>4718450</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0">
+        <v>19866</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5256480</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0">
+        <v>22941</v>
+      </c>
+      <c r="C11" s="0">
+        <v>5942550</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0">
+        <v>26041</v>
+      </c>
+      <c r="C12" s="0">
+        <v>6530130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0">
+        <v>29519</v>
+      </c>
+      <c r="C13" s="0">
+        <v>7218500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0">
+        <v>32519</v>
+      </c>
+      <c r="C14" s="0">
+        <v>7783470</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0">
+        <v>36180</v>
+      </c>
+      <c r="C15" s="0">
+        <v>8459790</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0">
+        <v>39631</v>
+      </c>
+      <c r="C16" s="0">
+        <v>9082330</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0">
+        <v>43762</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9841280</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0">
+        <v>47043</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10403810</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="0">
+        <v>51042</v>
+      </c>
+      <c r="C19" s="0">
+        <v>11104200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="0">
+        <v>54683</v>
+      </c>
+      <c r="C20" s="0">
+        <v>11871250</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="0">
+        <v>58298</v>
+      </c>
+      <c r="C21" s="0">
+        <v>12365020</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="0">
+        <v>62502</v>
+      </c>
+      <c r="C22" s="0">
+        <v>13081230</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="0">
+        <v>66194</v>
+      </c>
+      <c r="C23" s="0">
+        <v>13893740</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="0">
+        <v>70930</v>
+      </c>
+      <c r="C24" s="0">
+        <v>14634150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="0">
+        <v>73723</v>
+      </c>
+      <c r="C25" s="0">
+        <v>14943510</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="0">
+        <v>78192</v>
+      </c>
+      <c r="C26" s="0">
+        <v>15830870</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="0">
+        <v>82488</v>
+      </c>
+      <c r="C27" s="0">
+        <v>16459660</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="0">
+        <v>86512</v>
+      </c>
+      <c r="C28" s="0">
+        <v>17359080</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="0">
+        <v>90842</v>
+      </c>
+      <c r="C29" s="0">
+        <v>17911140</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="0">
+        <v>93981</v>
+      </c>
+      <c r="C30" s="0">
+        <v>18427600</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="0">
+        <v>98739</v>
+      </c>
+      <c r="C31" s="0">
+        <v>19285550</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/DataAgregation/events_data.xlsx
+++ b/DataAgregation/events_data.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="New Users" sheetId="26" r:id="rId39"/>
-    <sheet name="MAU" sheetId="27" r:id="rId40"/>
-    <sheet name="Revenue" sheetId="31" r:id="rId46"/>
-    <sheet name="DAU" sheetId="34" r:id="rId50"/>
-    <sheet name="Currency Rate" sheetId="53" r:id="rId81"/>
-    <sheet name="Stage Info" sheetId="54" r:id="rId82"/>
-    <sheet name="Item Info" sheetId="55" r:id="rId83"/>
-    <sheet name="Items by date info" sheetId="56" r:id="rId84"/>
+    <sheet name="DAU" sheetId="57" r:id="rId85"/>
+    <sheet name="New Users" sheetId="58" r:id="rId87"/>
+    <sheet name="MAU" sheetId="59" r:id="rId88"/>
+    <sheet name="Revenue" sheetId="60" r:id="rId89"/>
+    <sheet name="Currency Rate" sheetId="61" r:id="rId90"/>
+    <sheet name="Stage Info" sheetId="62" r:id="rId91"/>
+    <sheet name="Item Info" sheetId="63" r:id="rId92"/>
+    <sheet name="Items by date info" sheetId="64" r:id="rId93"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -533,7 +533,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0">
-        <v>24041</v>
+        <v>28304</v>
       </c>
     </row>
     <row r="4">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0">
-        <v>39281</v>
+        <v>42236</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0">
-        <v>48948</v>
+        <v>56313</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0">
-        <v>61871</v>
+        <v>69959</v>
       </c>
     </row>
     <row r="7">
@@ -594,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0">
-        <v>67025</v>
+        <v>83842</v>
       </c>
     </row>
     <row r="8">
@@ -602,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0">
-        <v>80612</v>
+        <v>98069</v>
       </c>
     </row>
     <row r="9">
@@ -610,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>84607</v>
+        <v>112334</v>
       </c>
     </row>
     <row r="10">
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0">
-        <v>93840</v>
+        <v>126433</v>
       </c>
     </row>
     <row r="11">
@@ -626,7 +626,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0">
-        <v>96793</v>
+        <v>140467</v>
       </c>
     </row>
     <row r="12">
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0">
-        <v>109291</v>
+        <v>154367</v>
       </c>
     </row>
     <row r="13">
@@ -642,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="0">
-        <v>107951</v>
+        <v>168802</v>
       </c>
     </row>
     <row r="14">
@@ -650,7 +650,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="0">
-        <v>120947</v>
+        <v>182488</v>
       </c>
     </row>
     <row r="15">
@@ -658,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="0">
-        <v>117673</v>
+        <v>196355</v>
       </c>
     </row>
     <row r="16">
@@ -666,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="0">
-        <v>130479</v>
+        <v>210695</v>
       </c>
     </row>
     <row r="17">
@@ -674,7 +674,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="0">
-        <v>131732</v>
+        <v>224616</v>
       </c>
     </row>
     <row r="18">
@@ -682,7 +682,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="0">
-        <v>137963</v>
+        <v>238586</v>
       </c>
     </row>
     <row r="19">
@@ -690,7 +690,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="0">
-        <v>141484</v>
+        <v>253107</v>
       </c>
     </row>
     <row r="20">
@@ -698,7 +698,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="0">
-        <v>144201</v>
+        <v>267098</v>
       </c>
     </row>
     <row r="21">
@@ -706,7 +706,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="0">
-        <v>151926</v>
+        <v>281236</v>
       </c>
     </row>
     <row r="22">
@@ -714,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="0">
-        <v>149781</v>
+        <v>294807</v>
       </c>
     </row>
     <row r="23">
@@ -722,7 +722,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="0">
-        <v>155368</v>
+        <v>309316</v>
       </c>
     </row>
     <row r="24">
@@ -730,7 +730,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="0">
-        <v>159224</v>
+        <v>323017</v>
       </c>
     </row>
     <row r="25">
@@ -738,7 +738,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="0">
-        <v>160978</v>
+        <v>337275</v>
       </c>
     </row>
     <row r="26">
@@ -746,7 +746,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="0">
-        <v>166416</v>
+        <v>351768</v>
       </c>
     </row>
     <row r="27">
@@ -754,7 +754,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="0">
-        <v>164780</v>
+        <v>365458</v>
       </c>
     </row>
     <row r="28">
@@ -762,7 +762,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="0">
-        <v>168471</v>
+        <v>379561</v>
       </c>
     </row>
     <row r="29">
@@ -770,7 +770,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="0">
-        <v>166719</v>
+        <v>393124</v>
       </c>
     </row>
     <row r="30">
@@ -778,7 +778,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="0">
-        <v>172870</v>
+        <v>407666</v>
       </c>
     </row>
     <row r="31">
@@ -786,7 +786,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="0">
-        <v>170295</v>
+        <v>421580</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +794,268 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0">
+        <v>14293</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0">
+        <v>24041</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0">
+        <v>39281</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0">
+        <v>48948</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0">
+        <v>61871</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0">
+        <v>67025</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0">
+        <v>80612</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0">
+        <v>84607</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0">
+        <v>93840</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0">
+        <v>96793</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0">
+        <v>109291</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0">
+        <v>107951</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0">
+        <v>120947</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0">
+        <v>117673</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0">
+        <v>130479</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0">
+        <v>131732</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0">
+        <v>137963</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="0">
+        <v>141484</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="0">
+        <v>144201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="0">
+        <v>151926</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="0">
+        <v>149781</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="0">
+        <v>155368</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="0">
+        <v>159224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="0">
+        <v>160978</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="0">
+        <v>166416</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="0">
+        <v>164780</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="0">
+        <v>168471</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="0">
+        <v>166719</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="0">
+        <v>172870</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="0">
+        <v>170295</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -817,7 +1078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -1078,7 +1339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -1091,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -1099,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>14293</v>
+        <v>0.08697228144989338</v>
       </c>
     </row>
     <row r="3">
@@ -1107,7 +1368,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0">
-        <v>28304</v>
+        <v>0.08650566315402203</v>
       </c>
     </row>
     <row r="4">
@@ -1115,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0">
-        <v>42236</v>
+        <v>0.0866585763586029</v>
       </c>
     </row>
     <row r="5">
@@ -1123,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0">
-        <v>56313</v>
+        <v>0.08666451924625544</v>
       </c>
     </row>
     <row r="6">
@@ -1131,7 +1392,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0">
-        <v>69959</v>
+        <v>0.0866539172289312</v>
       </c>
     </row>
     <row r="7">
@@ -1139,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0">
-        <v>83842</v>
+        <v>0.08638332623206932</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1408,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0">
-        <v>98069</v>
+        <v>0.08660127481092506</v>
       </c>
     </row>
     <row r="9">
@@ -1155,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>112334</v>
+        <v>0.08657101183813304</v>
       </c>
     </row>
     <row r="10">
@@ -1163,7 +1424,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0">
-        <v>126433</v>
+        <v>0.08655712847537254</v>
       </c>
     </row>
     <row r="11">
@@ -1171,7 +1432,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0">
-        <v>140467</v>
+        <v>0.08682011727509814</v>
       </c>
     </row>
     <row r="12">
@@ -1179,7 +1440,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0">
-        <v>154367</v>
+        <v>0.0866167696517846</v>
       </c>
     </row>
     <row r="13">
@@ -1187,7 +1448,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="0">
-        <v>168802</v>
+        <v>0.08673304469362762</v>
       </c>
     </row>
     <row r="14">
@@ -1195,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="0">
-        <v>182488</v>
+        <v>0.08658833923026621</v>
       </c>
     </row>
     <row r="15">
@@ -1203,7 +1464,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="0">
-        <v>196355</v>
+        <v>0.0868008683171018</v>
       </c>
     </row>
     <row r="16">
@@ -1211,7 +1472,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="0">
-        <v>210695</v>
+        <v>0.08667718128794191</v>
       </c>
     </row>
     <row r="17">
@@ -1219,7 +1480,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="0">
-        <v>224616</v>
+        <v>0.08673403299603741</v>
       </c>
     </row>
     <row r="18">
@@ -1227,7 +1488,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="0">
-        <v>238586</v>
+        <v>0.08662128355776517</v>
       </c>
     </row>
     <row r="19">
@@ -1235,7 +1496,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="0">
-        <v>253107</v>
+        <v>0.08665867248929138</v>
       </c>
     </row>
     <row r="20">
@@ -1243,7 +1504,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="0">
-        <v>267098</v>
+        <v>0.08660517282782196</v>
       </c>
     </row>
     <row r="21">
@@ -1251,7 +1512,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="0">
-        <v>281236</v>
+        <v>0.08667307868956985</v>
       </c>
     </row>
     <row r="22">
@@ -1259,7 +1520,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="0">
-        <v>294807</v>
+        <v>0.08670021604153341</v>
       </c>
     </row>
     <row r="23">
@@ -1267,7 +1528,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="0">
-        <v>309316</v>
+        <v>0.08656510585292794</v>
       </c>
     </row>
     <row r="24">
@@ -1275,7 +1536,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="0">
-        <v>323017</v>
+        <v>0.08665557532151698</v>
       </c>
     </row>
     <row r="25">
@@ -1283,7 +1544,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="0">
-        <v>337275</v>
+        <v>0.0865896269254343</v>
       </c>
     </row>
     <row r="26">
@@ -1291,7 +1552,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="0">
-        <v>351768</v>
+        <v>0.08663663860264753</v>
       </c>
     </row>
     <row r="27">
@@ -1299,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="0">
-        <v>365458</v>
+        <v>0.08662194028363612</v>
       </c>
     </row>
     <row r="28">
@@ -1307,7 +1568,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="0">
-        <v>379561</v>
+        <v>0.08668814966714818</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1576,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="0">
-        <v>393124</v>
+        <v>0.08668727706921597</v>
       </c>
     </row>
     <row r="30">
@@ -1323,7 +1584,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="0">
-        <v>407666</v>
+        <v>0.08663490490242456</v>
       </c>
     </row>
     <row r="31">
@@ -1331,7 +1592,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="0">
-        <v>421580</v>
+        <v>0.08657574462420213</v>
       </c>
     </row>
   </sheetData>
@@ -1339,268 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0.08697228144989338</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.08650566315402203</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0.0866585763586029</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.08666451924625544</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.0866539172289312</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0.08638332623206932</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0">
-        <v>0.08660127481092506</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0.08657101183813304</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0">
-        <v>0.08655712847537254</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="0">
-        <v>0.08682011727509814</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="0">
-        <v>0.0866167696517846</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="0">
-        <v>0.08673304469362762</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0">
-        <v>0.08658833923026621</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="0">
-        <v>0.0868008683171018</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="0">
-        <v>0.08667718128794191</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="0">
-        <v>0.08673403299603741</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="0">
-        <v>0.08662128355776517</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="0">
-        <v>0.08665867248929138</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="0">
-        <v>0.08660517282782196</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="0">
-        <v>0.08667307868956985</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="0">
-        <v>0.08670021604153341</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="0">
-        <v>0.08656510585292794</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="0">
-        <v>0.08665557532151698</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="0">
-        <v>0.0865896269254343</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="0">
-        <v>0.08663663860264753</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="0">
-        <v>0.08662194028363612</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="0">
-        <v>0.08668814966714818</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="0">
-        <v>0.08668727706921597</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="0">
-        <v>0.08663490490242456</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="0">
-        <v>0.08657574462420213</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:F68"/>
   <sheetViews>
@@ -2973,7 +2973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:D114"/>
   <sheetViews>
@@ -4582,7 +4582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:C31"/>
   <sheetViews>

--- a/DataAgregation/events_data.xlsx
+++ b/DataAgregation/events_data.xlsx
@@ -5,7 +5,6 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="DAU" sheetId="67" r:id="rId96"/>
     <sheet name="New Users" sheetId="68" r:id="rId98"/>
     <sheet name="Revenue" sheetId="70" r:id="rId100"/>
     <sheet name="Currency Rate" sheetId="71" r:id="rId101"/>
@@ -13,6 +12,7 @@
     <sheet name="Item Info" sheetId="73" r:id="rId103"/>
     <sheet name="Items by date info" sheetId="74" r:id="rId104"/>
     <sheet name="MAU" sheetId="75" r:id="rId105"/>
+    <sheet name="DAU" sheetId="76" r:id="rId106"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -536,267 +536,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0">
-        <v>14293</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0">
-        <v>28304</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0">
-        <v>42236</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0">
-        <v>56313</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0">
-        <v>69959</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0">
-        <v>83842</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0">
-        <v>98069</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="0">
-        <v>112334</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0">
-        <v>126433</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="0">
-        <v>140467</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="0">
-        <v>154367</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="0">
-        <v>168802</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0">
-        <v>182488</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="0">
-        <v>196355</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="0">
-        <v>210695</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="0">
-        <v>224616</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="0">
-        <v>238586</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="0">
-        <v>253107</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="0">
-        <v>267098</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="0">
-        <v>281236</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="0">
-        <v>294807</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="0">
-        <v>309316</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="0">
-        <v>323017</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="0">
-        <v>337275</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="0">
-        <v>351768</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="0">
-        <v>365458</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="0">
-        <v>379561</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="0">
-        <v>393124</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="0">
-        <v>407666</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="0">
-        <v>421580</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:B31"/>
@@ -4937,4 +4676,265 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0">
+        <v>14293</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0">
+        <v>28304</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0">
+        <v>42236</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0">
+        <v>56313</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0">
+        <v>69959</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0">
+        <v>83842</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0">
+        <v>98069</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0">
+        <v>112334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0">
+        <v>126433</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0">
+        <v>140467</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0">
+        <v>154367</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0">
+        <v>168802</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0">
+        <v>182488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0">
+        <v>196355</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0">
+        <v>210695</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0">
+        <v>224616</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0">
+        <v>238586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="0">
+        <v>253107</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="0">
+        <v>267098</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="0">
+        <v>281236</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="0">
+        <v>294807</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="0">
+        <v>309316</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="0">
+        <v>323017</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="0">
+        <v>337275</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="0">
+        <v>351768</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="0">
+        <v>365458</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="0">
+        <v>379561</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="0">
+        <v>393124</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="0">
+        <v>407666</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="0">
+        <v>421580</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
 </file>